--- a/Assets/StreamingAssets/test.xlsx
+++ b/Assets/StreamingAssets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Space\Unity_Work_Space_Git\Trend_Git\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9266100-9144-4D78-A194-D124D617C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA95773-E7E3-413B-9408-D4D35057C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2040" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,40 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>男子地铁偷拍女大学生</t>
-  </si>
-  <si>
-    <t>女子网络声讨男子</t>
-  </si>
-  <si>
-    <t>男子没有偷拍</t>
-  </si>
-  <si>
-    <t>女子拒绝道歉</t>
-  </si>
-  <si>
-    <t>被网暴杀死的粉发女孩</t>
-  </si>
-  <si>
-    <t>网民悼念</t>
-  </si>
-  <si>
-    <t>被制度推下楼的小学老师</t>
-  </si>
-  <si>
-    <t>学校申明</t>
-  </si>
-  <si>
-    <t>是鸭脖还是鼠头</t>
-  </si>
-  <si>
-    <t>是鸭脖</t>
-  </si>
-  <si>
-    <t>是鼠头</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>歌手草草承认有私生子</t>
   </si>
@@ -87,6 +54,209 @@
   </si>
   <si>
     <t>米国总统于今日访问首都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random 1</t>
+  </si>
+  <si>
+    <t>Random 2</t>
+  </si>
+  <si>
+    <t>Random 3</t>
+  </si>
+  <si>
+    <t>Random 4</t>
+  </si>
+  <si>
+    <t>Random 5</t>
+  </si>
+  <si>
+    <t>Random 6</t>
+  </si>
+  <si>
+    <t>Random 7</t>
+  </si>
+  <si>
+    <t>Random 8</t>
+  </si>
+  <si>
+    <t>Random 9</t>
+  </si>
+  <si>
+    <t>Random 10</t>
+  </si>
+  <si>
+    <t>Random 11</t>
+  </si>
+  <si>
+    <t>Random 12</t>
+  </si>
+  <si>
+    <t>Random 13</t>
+  </si>
+  <si>
+    <t>Random 14</t>
+  </si>
+  <si>
+    <t>Random 15</t>
+  </si>
+  <si>
+    <t>Random 16</t>
+  </si>
+  <si>
+    <t>Random 17</t>
+  </si>
+  <si>
+    <t>Random 18</t>
+  </si>
+  <si>
+    <t>Random 19</t>
+  </si>
+  <si>
+    <t>Random 20</t>
+  </si>
+  <si>
+    <t>Random 21</t>
+  </si>
+  <si>
+    <t>Random 22</t>
+  </si>
+  <si>
+    <t>Random 23</t>
+  </si>
+  <si>
+    <t>Random 24</t>
+  </si>
+  <si>
+    <t>Random 25</t>
+  </si>
+  <si>
+    <t>#E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>G0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>H0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>A0男子地铁偷拍女大学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1女子网络声讨男子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2男子没有偷拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3女子拒绝道歉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0被网暴杀死的粉发女孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1网民悼念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0被制度推下楼的小学老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1学校申明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1是鸭脖还是鼠头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2是鸭脖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3是鼠头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -441,81 +611,239 @@
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
